--- a/src/test/resources/timetable-parser/timetable-4.xlsx
+++ b/src/test/resources/timetable-parser/timetable-4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="24.10.2022-29.10.2022" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="293" uniqueCount="61">
-  <si>
-    <t>24.10.2022</t>
-  </si>
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="293" uniqueCount="55">
   <si>
     <t>8:20-9:50</t>
   </si>
@@ -63,9 +60,6 @@
     <t>18:50-20:20</t>
   </si>
   <si>
-    <t>25.10.2022</t>
-  </si>
-  <si>
     <t>18:30-18:45</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>https://mirapolis.ru</t>
   </si>
   <si>
-    <t>26.10.2022</t>
-  </si>
-  <si>
     <t>Основы банковского дела</t>
   </si>
   <si>
@@ -99,12 +90,6 @@
     <t>14/1</t>
   </si>
   <si>
-    <t>27.10.2022</t>
-  </si>
-  <si>
-    <t>28.10.2022</t>
-  </si>
-  <si>
     <t>Информационные технологии поддержки принятия решений</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>13/1</t>
   </si>
   <si>
-    <t>29.10.2022</t>
-  </si>
-  <si>
     <t>Проектирование информационных систем</t>
   </si>
   <si>
@@ -132,24 +114,6 @@
     <t>21/1</t>
   </si>
   <si>
-    <t>31.10.2022</t>
-  </si>
-  <si>
-    <t>01.11.2022</t>
-  </si>
-  <si>
-    <t>02.11.2022</t>
-  </si>
-  <si>
-    <t>03.11.2022</t>
-  </si>
-  <si>
-    <t>04.11.2022</t>
-  </si>
-  <si>
-    <t>05.11.2022</t>
-  </si>
-  <si>
     <t>ОБ-Вт-09.03.03.02-11</t>
   </si>
   <si>
@@ -211,6 +175,24 @@
   </si>
   <si>
     <t>Кузнецова О.В.</t>
+  </si>
+  <si>
+    <t>понедельник</t>
+  </si>
+  <si>
+    <t>вторник</t>
+  </si>
+  <si>
+    <t>среда</t>
+  </si>
+  <si>
+    <t>четверг</t>
+  </si>
+  <si>
+    <t>пятница</t>
+  </si>
+  <si>
+    <t>суббота</t>
   </si>
 </sst>
 </file>
@@ -502,8 +484,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -515,174 +497,174 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
@@ -700,161 +682,161 @@
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
+      <c r="A23" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -862,7 +844,7 @@
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7"/>
     </row>
@@ -870,188 +852,188 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>16</v>
+      <c r="A44" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="7"/>
@@ -1069,167 +1051,167 @@
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>23</v>
+      <c r="A65" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D74" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="7"/>
@@ -1247,161 +1229,161 @@
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>24</v>
+      <c r="A86" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
+      <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="3"/>
       <c r="B104" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="7"/>
@@ -1419,14 +1401,14 @@
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>28</v>
+      <c r="A107" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D107" s="7"/>
     </row>
@@ -1434,7 +1416,7 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D108" s="7"/>
     </row>
@@ -1442,17 +1424,17 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D110" s="7"/>
     </row>
@@ -1460,7 +1442,7 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D111" s="7"/>
     </row>
@@ -1468,17 +1450,17 @@
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D113" s="7"/>
     </row>
@@ -1486,7 +1468,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D114" s="7"/>
     </row>
@@ -1494,17 +1476,17 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D116" s="7"/>
     </row>
@@ -1512,7 +1494,7 @@
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D117" s="7"/>
     </row>
@@ -1520,14 +1502,14 @@
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="7"/>
@@ -1547,7 +1529,7 @@
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="7"/>
@@ -1567,7 +1549,7 @@
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="7"/>
@@ -2465,7 +2447,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2475,22 +2459,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,7 +2482,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,17 +2490,17 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,7 +2508,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,17 +2516,17 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2550,7 +2534,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2558,48 +2542,48 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -2607,7 +2591,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7"/>
     </row>
@@ -2615,14 +2599,14 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
@@ -2642,7 +2626,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
@@ -2661,10 +2645,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -2681,11 +2665,11 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,7 +2677,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,17 +2685,17 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,7 +2703,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,17 +2711,17 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,7 +2729,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,17 +2737,17 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,7 +2755,7 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2779,13 +2763,13 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="7"/>
@@ -2805,7 +2789,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="7"/>
@@ -2824,14 +2808,14 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,7 +2823,7 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,17 +2831,17 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,7 +2849,7 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2873,110 +2857,110 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D59" s="7"/>
     </row>
@@ -2984,7 +2968,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D60" s="7"/>
     </row>
@@ -2992,14 +2976,14 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="7"/>
@@ -3018,14 +3002,14 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3033,7 +3017,7 @@
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,17 +3025,17 @@
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,7 +3043,7 @@
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,77 +3051,77 @@
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D74" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="7"/>
@@ -3157,7 +3141,7 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="7"/>
@@ -3177,7 +3161,7 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="7"/>
@@ -3196,10 +3180,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="7"/>
@@ -3219,7 +3203,7 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="7"/>
@@ -3239,7 +3223,7 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="7"/>
@@ -3259,7 +3243,7 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="7"/>
@@ -3279,7 +3263,7 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="7"/>
@@ -3299,7 +3283,7 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="7"/>
@@ -3319,7 +3303,7 @@
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="7"/>
@@ -3338,13 +3322,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D107" s="7"/>
     </row>
@@ -3352,7 +3336,7 @@
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D108" s="7"/>
     </row>
@@ -3360,17 +3344,17 @@
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D110" s="7"/>
     </row>
@@ -3378,7 +3362,7 @@
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D111" s="7"/>
     </row>
@@ -3386,17 +3370,17 @@
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D113" s="7"/>
     </row>
@@ -3404,7 +3388,7 @@
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D114" s="7"/>
     </row>
@@ -3412,17 +3396,17 @@
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D116" s="7"/>
     </row>
@@ -3430,7 +3414,7 @@
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D117" s="7"/>
     </row>
@@ -3438,14 +3422,14 @@
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="7"/>
@@ -3465,7 +3449,7 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="7"/>
@@ -3485,7 +3469,7 @@
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="7"/>
